--- a/Code/Results/Cases/Case_0_244/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_244/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1858766329603867</v>
+        <v>0.1382852495259073</v>
       </c>
       <c r="D2">
-        <v>0.02332515493793963</v>
+        <v>0.02903157483691032</v>
       </c>
       <c r="E2">
-        <v>0.6020603773850937</v>
+        <v>0.2080691495604583</v>
       </c>
       <c r="F2">
-        <v>1.050753092689291</v>
+        <v>0.9606442962047055</v>
       </c>
       <c r="G2">
-        <v>1.111110332227867</v>
+        <v>0.815313896557015</v>
       </c>
       <c r="H2">
-        <v>0.4639280074382697</v>
+        <v>0.8579786372760907</v>
       </c>
       <c r="I2">
-        <v>0.5630391062200459</v>
+        <v>0.8094353589091767</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.409314415384756</v>
+        <v>0.4254645300077584</v>
       </c>
       <c r="M2">
-        <v>34.63135917326639</v>
+        <v>10.94419732318642</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1602806359276343</v>
+        <v>0.1342804142170735</v>
       </c>
       <c r="D3">
-        <v>0.01489004247931547</v>
+        <v>0.03086542026373706</v>
       </c>
       <c r="E3">
-        <v>0.5018782257499339</v>
+        <v>0.1895767653421387</v>
       </c>
       <c r="F3">
-        <v>0.8259581489495673</v>
+        <v>0.9805847396468295</v>
       </c>
       <c r="G3">
-        <v>0.8454952178647801</v>
+        <v>0.83770751258416</v>
       </c>
       <c r="H3">
-        <v>0.3694752102075967</v>
+        <v>0.8843039319907433</v>
       </c>
       <c r="I3">
-        <v>0.4121855733349093</v>
+        <v>0.8454207989169404</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.169946371205782</v>
+        <v>0.3802221542334507</v>
       </c>
       <c r="M3">
-        <v>29.31547249487255</v>
+        <v>9.626327495980604</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1459793350647089</v>
+        <v>0.131908940825582</v>
       </c>
       <c r="D4">
-        <v>0.01119050436228619</v>
+        <v>0.03208420846612015</v>
       </c>
       <c r="E4">
-        <v>0.4458994923339006</v>
+        <v>0.1783528601004249</v>
       </c>
       <c r="F4">
-        <v>0.7121968536854695</v>
+        <v>0.9950466054534388</v>
       </c>
       <c r="G4">
-        <v>0.7122043682609274</v>
+        <v>0.8538623890222823</v>
       </c>
       <c r="H4">
-        <v>0.3254853356241227</v>
+        <v>0.9020316300492794</v>
       </c>
       <c r="I4">
-        <v>0.3421562145800507</v>
+        <v>0.8696134713979475</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.0361847560103</v>
+        <v>0.3526737102124002</v>
       </c>
       <c r="M4">
-        <v>26.23742129962238</v>
+        <v>8.814650732536165</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1404159833273582</v>
+        <v>0.1309642598465359</v>
       </c>
       <c r="D5">
-        <v>0.009963283112128352</v>
+        <v>0.03260362793371385</v>
       </c>
       <c r="E5">
-        <v>0.4241136609697449</v>
+        <v>0.1738103245136458</v>
       </c>
       <c r="F5">
-        <v>0.6705823205110306</v>
+        <v>1.001485976137381</v>
       </c>
       <c r="G5">
-        <v>0.663681270110402</v>
+        <v>0.8610358355447829</v>
       </c>
       <c r="H5">
-        <v>0.3103120382971838</v>
+        <v>0.9096424842088737</v>
       </c>
       <c r="I5">
-        <v>0.3180202258782217</v>
+        <v>0.8799887874304488</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.9841222046717064</v>
+        <v>0.3415017047533411</v>
       </c>
       <c r="M5">
-        <v>25.01732824683438</v>
+        <v>8.483213416106594</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1395060642930446</v>
+        <v>0.1308086998370186</v>
       </c>
       <c r="D6">
-        <v>0.009774308273129861</v>
+        <v>0.03269123472750834</v>
       </c>
       <c r="E6">
-        <v>0.4205496217246818</v>
+        <v>0.1730578882369045</v>
       </c>
       <c r="F6">
-        <v>0.6639266520275129</v>
+        <v>1.002587867407556</v>
       </c>
       <c r="G6">
-        <v>0.6559338436035915</v>
+        <v>0.8622622058597358</v>
       </c>
       <c r="H6">
-        <v>0.3079406300920482</v>
+        <v>0.910929424534217</v>
       </c>
       <c r="I6">
-        <v>0.3142481440188121</v>
+        <v>0.8817424893939076</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.9756046691370841</v>
+        <v>0.3396497713958695</v>
       </c>
       <c r="M6">
-        <v>24.81650681833082</v>
+        <v>8.428136702285144</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1459033330983175</v>
+        <v>0.1318961129721146</v>
       </c>
       <c r="D7">
-        <v>0.01117291788114372</v>
+        <v>0.03209112216626409</v>
       </c>
       <c r="E7">
-        <v>0.445601923241064</v>
+        <v>0.1782914730711909</v>
       </c>
       <c r="F7">
-        <v>0.711617913830537</v>
+        <v>0.9951312535711807</v>
       </c>
       <c r="G7">
-        <v>0.7115283796423739</v>
+        <v>0.8539567620013031</v>
       </c>
       <c r="H7">
-        <v>0.3252704030146703</v>
+        <v>0.902132715667932</v>
       </c>
       <c r="I7">
-        <v>0.3418142924283032</v>
+        <v>0.8697513189789206</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.035473667140877</v>
+        <v>0.3525228259133257</v>
       </c>
       <c r="M7">
-        <v>26.22084177317691</v>
+        <v>8.810183630120662</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1766912217921259</v>
+        <v>0.136886031925485</v>
       </c>
       <c r="D8">
-        <v>0.02004325469998136</v>
+        <v>0.02964426853635871</v>
       </c>
       <c r="E8">
-        <v>0.5661044568857108</v>
+        <v>0.2016649345797106</v>
       </c>
       <c r="F8">
-        <v>0.9672393655790472</v>
+        <v>0.967052196611661</v>
       </c>
       <c r="G8">
-        <v>1.012127425904637</v>
+        <v>0.8225271895037451</v>
       </c>
       <c r="H8">
-        <v>0.4279047183546538</v>
+        <v>0.8667270371882125</v>
       </c>
       <c r="I8">
-        <v>0.505418095932221</v>
+        <v>0.8214012492559064</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.323404654732599</v>
+        <v>0.409814735025634</v>
       </c>
       <c r="M8">
-        <v>32.75086705882813</v>
+        <v>10.490286130198</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2554590552236107</v>
+        <v>0.1473811489579191</v>
       </c>
       <c r="D9">
-        <v>0.05628560291082607</v>
+        <v>0.02560930081531509</v>
       </c>
       <c r="E9">
-        <v>0.8747008423517144</v>
+        <v>0.2486127407807572</v>
       </c>
       <c r="F9">
-        <v>1.76186921099918</v>
+        <v>0.930129197361353</v>
       </c>
       <c r="G9">
-        <v>1.964858231119308</v>
+        <v>0.7806436390220028</v>
       </c>
       <c r="H9">
-        <v>0.797659491400367</v>
+        <v>0.8100041866765224</v>
       </c>
       <c r="I9">
-        <v>1.101755003469471</v>
+        <v>0.7437221646446304</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>2.060732334549868</v>
+        <v>0.5241837910725167</v>
       </c>
       <c r="M9">
-        <v>47.97818619251836</v>
+        <v>13.76753160554597</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3499024466346867</v>
+        <v>0.1555497643282138</v>
       </c>
       <c r="D10">
-        <v>0.118917446979367</v>
+        <v>0.02314872059617912</v>
       </c>
       <c r="E10">
-        <v>1.244107971452358</v>
+        <v>0.2839034006018437</v>
       </c>
       <c r="F10">
-        <v>2.852824373927405</v>
+        <v>0.9148183178614602</v>
       </c>
       <c r="G10">
-        <v>3.301991641703779</v>
+        <v>0.7628498897288836</v>
       </c>
       <c r="H10">
-        <v>1.360026399318173</v>
+        <v>0.7764960231527169</v>
       </c>
       <c r="I10">
-        <v>2.026454933896147</v>
+        <v>0.697789017588164</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>2.942745121329665</v>
+        <v>0.6097366903998989</v>
       </c>
       <c r="M10">
-        <v>63.80497365219895</v>
+        <v>16.16864197100853</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4321678079336237</v>
+        <v>0.159371601920185</v>
       </c>
       <c r="D11">
-        <v>0.1844184808435276</v>
+        <v>0.02214760898804613</v>
       </c>
       <c r="E11">
-        <v>1.562431382259241</v>
+        <v>0.3001605875285662</v>
       </c>
       <c r="F11">
-        <v>3.826528597006558</v>
+        <v>0.9105882960652849</v>
       </c>
       <c r="G11">
-        <v>4.5172700719761</v>
+        <v>0.7577830949615247</v>
       </c>
       <c r="H11">
-        <v>1.890735039512634</v>
+        <v>0.7631191334730545</v>
       </c>
       <c r="I11">
-        <v>2.916125666876241</v>
+        <v>0.6794660274276012</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>3.701069978978694</v>
+        <v>0.6490598665051834</v>
       </c>
       <c r="M11">
-        <v>75.67414917514907</v>
+        <v>17.26050881681698</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.5048165025158511</v>
+        <v>0.1608346186565939</v>
       </c>
       <c r="D12">
-        <v>0.2468406782162944</v>
+        <v>0.02178628982385789</v>
       </c>
       <c r="E12">
-        <v>1.838846790665201</v>
+        <v>0.3063485582386392</v>
       </c>
       <c r="F12">
-        <v>4.654575232592677</v>
+        <v>0.9093942430016284</v>
       </c>
       <c r="G12">
-        <v>5.565725539522276</v>
+        <v>0.7563177539874175</v>
       </c>
       <c r="H12">
-        <v>2.357352146554888</v>
+        <v>0.7583300370389736</v>
       </c>
       <c r="I12">
-        <v>3.711850431124873</v>
+        <v>0.6729107683165907</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>4.357421038547557</v>
+        <v>0.6640149974574001</v>
       </c>
       <c r="M12">
-        <v>84.84887604833051</v>
+        <v>17.67399688551171</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4809883677846898</v>
+        <v>0.1605188213066526</v>
       </c>
       <c r="D13">
-        <v>0.2260741437987512</v>
+        <v>0.02186330278898652</v>
       </c>
       <c r="E13">
-        <v>1.7487543255397</v>
+        <v>0.3050144152514349</v>
       </c>
       <c r="F13">
-        <v>4.388194523575379</v>
+        <v>0.9096330329103353</v>
       </c>
       <c r="G13">
-        <v>5.226932889114352</v>
+        <v>0.756612886557491</v>
       </c>
       <c r="H13">
-        <v>2.205868348244849</v>
+        <v>0.7593490283083781</v>
       </c>
       <c r="I13">
-        <v>3.452096302347741</v>
+        <v>0.6743052975104646</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>4.14375281877679</v>
+        <v>0.6607911809110476</v>
       </c>
       <c r="M13">
-        <v>81.96449160996502</v>
+        <v>17.58494249934603</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4361061420880645</v>
+        <v>0.1594916458626017</v>
       </c>
       <c r="D14">
-        <v>0.1877210171621648</v>
+        <v>0.02211752210837403</v>
       </c>
       <c r="E14">
-        <v>1.577542739473834</v>
+        <v>0.3006690247962212</v>
       </c>
       <c r="F14">
-        <v>3.87249889684098</v>
+        <v>0.9104818038800033</v>
       </c>
       <c r="G14">
-        <v>4.575116890677862</v>
+        <v>0.7576533498445599</v>
       </c>
       <c r="H14">
-        <v>1.91630004984782</v>
+        <v>0.7627195441054653</v>
       </c>
       <c r="I14">
-        <v>2.959389515869105</v>
+        <v>0.6789189631005854</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>3.737009695357557</v>
+        <v>0.6502889089901487</v>
       </c>
       <c r="M14">
-        <v>76.20139064566234</v>
+        <v>17.29452580378234</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4171228792703801</v>
+        <v>0.1588645418526085</v>
       </c>
       <c r="D15">
-        <v>0.1719174489840523</v>
+        <v>0.02227557803899671</v>
       </c>
       <c r="E15">
-        <v>1.504583700929025</v>
+        <v>0.2980115566612227</v>
       </c>
       <c r="F15">
-        <v>3.650077420299922</v>
+        <v>0.9110552408934893</v>
       </c>
       <c r="G15">
-        <v>4.295623064414713</v>
+        <v>0.7583502454241398</v>
       </c>
       <c r="H15">
-        <v>1.793003086627891</v>
+        <v>0.7648203275803667</v>
       </c>
       <c r="I15">
-        <v>2.75108016257262</v>
+        <v>0.6817952824475171</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>3.563434125131749</v>
+        <v>0.6438645262138891</v>
       </c>
       <c r="M15">
-        <v>73.62679518147723</v>
+        <v>17.11664255048964</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3460479236619136</v>
+        <v>0.1553021743767999</v>
       </c>
       <c r="D16">
-        <v>0.116052650492092</v>
+        <v>0.02321659036062584</v>
       </c>
       <c r="E16">
-        <v>1.229089537648377</v>
+        <v>0.2828452548671123</v>
       </c>
       <c r="F16">
-        <v>2.807084002350777</v>
+        <v>0.9151510219795256</v>
       </c>
       <c r="G16">
-        <v>3.245383211749271</v>
+        <v>0.7632434644014126</v>
       </c>
       <c r="H16">
-        <v>1.335661702499181</v>
+        <v>0.7774084720583971</v>
       </c>
       <c r="I16">
-        <v>1.985997761313989</v>
+        <v>0.6990393617443829</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>2.906917996068501</v>
+        <v>0.6071754837686001</v>
       </c>
       <c r="M16">
-        <v>63.20688610434689</v>
+        <v>16.09728439228888</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3161238257510064</v>
+        <v>0.153144270044379</v>
       </c>
       <c r="D17">
-        <v>0.09460726173075074</v>
+        <v>0.02382469376149032</v>
       </c>
       <c r="E17">
-        <v>1.112274815462897</v>
+        <v>0.2735950032937069</v>
       </c>
       <c r="F17">
-        <v>2.45398240618583</v>
+        <v>0.9183743065932504</v>
       </c>
       <c r="G17">
-        <v>2.809913510568862</v>
+        <v>0.7670333643023355</v>
       </c>
       <c r="H17">
-        <v>1.149605482052237</v>
+        <v>0.7856145355933108</v>
       </c>
       <c r="I17">
-        <v>1.678199654933188</v>
+        <v>0.7102862408677311</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>2.628138635676805</v>
+        <v>0.5847758057009287</v>
       </c>
       <c r="M17">
-        <v>58.42881838368464</v>
+        <v>15.47189133082321</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3012939744720597</v>
+        <v>0.151913032394873</v>
       </c>
       <c r="D18">
-        <v>0.08455210484185116</v>
+        <v>0.02418553728659845</v>
       </c>
       <c r="E18">
-        <v>1.054266084620167</v>
+        <v>0.2682934773146712</v>
       </c>
       <c r="F18">
-        <v>2.281061047752047</v>
+        <v>0.920484791571468</v>
       </c>
       <c r="G18">
-        <v>2.597678391706211</v>
+        <v>0.7694970856844918</v>
       </c>
       <c r="H18">
-        <v>1.059929467008374</v>
+        <v>0.7905095980854497</v>
       </c>
       <c r="I18">
-        <v>1.530583259765116</v>
+        <v>0.7169964339927475</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>2.489637403813617</v>
+        <v>0.5719298072174581</v>
       </c>
       <c r="M18">
-        <v>55.97042804067274</v>
+        <v>15.11213789560264</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2965753901973756</v>
+        <v>0.1514978465368131</v>
       </c>
       <c r="D19">
-        <v>0.08143968284386638</v>
+        <v>0.0243095922471035</v>
       </c>
       <c r="E19">
-        <v>1.035796404429057</v>
+        <v>0.2665016575506201</v>
       </c>
       <c r="F19">
-        <v>2.226442170647289</v>
+        <v>0.9212429919947311</v>
       </c>
       <c r="G19">
-        <v>2.530787732445759</v>
+        <v>0.7703794761480225</v>
       </c>
       <c r="H19">
-        <v>1.03182226149616</v>
+        <v>0.7921968220304763</v>
       </c>
       <c r="I19">
-        <v>1.484416903642604</v>
+        <v>0.7193094303931389</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>2.445532180706095</v>
+        <v>0.5675866699463938</v>
       </c>
       <c r="M19">
-        <v>55.17537277590873</v>
+        <v>14.99032168057232</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3190333299929335</v>
+        <v>0.153372950959124</v>
       </c>
       <c r="D20">
-        <v>0.09662677230960881</v>
+        <v>0.02375880799040075</v>
       </c>
       <c r="E20">
-        <v>1.12364776084631</v>
+        <v>0.2745777271451288</v>
       </c>
       <c r="F20">
-        <v>2.488103118321675</v>
+        <v>0.9180045283847704</v>
       </c>
       <c r="G20">
-        <v>2.85187280444805</v>
+        <v>0.7666004150311352</v>
       </c>
       <c r="H20">
-        <v>1.167418193753775</v>
+        <v>0.7847228007446034</v>
       </c>
       <c r="I20">
-        <v>1.707579086081317</v>
+        <v>0.7090639236840559</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>2.655288198318601</v>
+        <v>0.5871563446999062</v>
       </c>
       <c r="M20">
-        <v>58.90401912418292</v>
+        <v>15.53846946941815</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4468313806501811</v>
+        <v>0.1597929196364589</v>
       </c>
       <c r="D21">
-        <v>0.1967724470347427</v>
+        <v>0.02204236278856087</v>
       </c>
       <c r="E21">
-        <v>1.618626363517805</v>
+        <v>0.3019444894417376</v>
       </c>
       <c r="F21">
-        <v>3.997165533840544</v>
+        <v>0.9102213150331124</v>
       </c>
       <c r="G21">
-        <v>4.73220309750053</v>
+        <v>0.7573352908799507</v>
       </c>
       <c r="H21">
-        <v>1.985838957229305</v>
+        <v>0.7617219736270329</v>
       </c>
       <c r="I21">
-        <v>3.077262292039066</v>
+        <v>0.6775533073824107</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>3.834688412426601</v>
+        <v>0.6533718850080277</v>
       </c>
       <c r="M21">
-        <v>77.61924032827091</v>
+        <v>17.37982695635924</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4468313806501811</v>
+        <v>0.1640809452385383</v>
       </c>
       <c r="D22">
-        <v>0.1967724470347427</v>
+        <v>0.0210245905847195</v>
       </c>
       <c r="E22">
-        <v>1.618626363517805</v>
+        <v>0.3200164715410239</v>
       </c>
       <c r="F22">
-        <v>3.997165533840544</v>
+        <v>0.9075183449149336</v>
       </c>
       <c r="G22">
-        <v>4.73220309750053</v>
+        <v>0.7539311881524782</v>
       </c>
       <c r="H22">
-        <v>1.985838957229305</v>
+        <v>0.7483048532913301</v>
       </c>
       <c r="I22">
-        <v>3.077262292039066</v>
+        <v>0.6591997479989544</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>3.834688412426601</v>
+        <v>0.6970254953904202</v>
       </c>
       <c r="M22">
-        <v>77.61924032827091</v>
+        <v>18.5834301849431</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4468313806501811</v>
+        <v>0.1617837166302252</v>
       </c>
       <c r="D23">
-        <v>0.1967724470347427</v>
+        <v>0.02155800932523277</v>
       </c>
       <c r="E23">
-        <v>1.618626363517805</v>
+        <v>0.3103532021781348</v>
       </c>
       <c r="F23">
-        <v>3.997165533840544</v>
+        <v>0.9087379497820365</v>
       </c>
       <c r="G23">
-        <v>4.73220309750053</v>
+        <v>0.7554993502335492</v>
       </c>
       <c r="H23">
-        <v>1.985838957229305</v>
+        <v>0.7553152876420199</v>
       </c>
       <c r="I23">
-        <v>3.077262292039066</v>
+        <v>0.6687858541826301</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>3.834688412426601</v>
+        <v>0.6736900300593049</v>
       </c>
       <c r="M23">
-        <v>77.61924032827091</v>
+        <v>17.94100039499864</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.9272982408680548</v>
+        <v>0.1532695351726261</v>
       </c>
       <c r="D24">
-        <v>0.6007876624758151</v>
+        <v>0.02378856000647289</v>
       </c>
       <c r="E24">
-        <v>3.331543549826023</v>
+        <v>0.2741333862762048</v>
       </c>
       <c r="F24">
-        <v>8.143666601728768</v>
+        <v>0.918170904535387</v>
       </c>
       <c r="G24">
-        <v>10.17668407470723</v>
+        <v>0.7667952654824148</v>
       </c>
       <c r="H24">
-        <v>4.460768571165602</v>
+        <v>0.7851254024694754</v>
       </c>
       <c r="I24">
-        <v>7.51528365137635</v>
+        <v>0.7096157736227084</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.852017812745515</v>
+        <v>0.5860800041913308</v>
       </c>
       <c r="M24">
-        <v>121.704106197951</v>
+        <v>15.50837014259719</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>1.193578150456972</v>
+        <v>0.1444635031345172</v>
       </c>
       <c r="D25">
-        <v>0.779153132722028</v>
+        <v>0.02661526583543861</v>
       </c>
       <c r="E25">
-        <v>4.186048886404024</v>
+        <v>0.2357812136348514</v>
       </c>
       <c r="F25">
-        <v>9.186556518649439</v>
+        <v>0.9380987359491968</v>
       </c>
       <c r="G25">
-        <v>11.70383874222185</v>
+        <v>0.7897645028533873</v>
       </c>
       <c r="H25">
-        <v>5.16647626018829</v>
+        <v>0.8239461288816159</v>
       </c>
       <c r="I25">
-        <v>8.976747469183906</v>
+        <v>0.7628316547192497</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.813554760103699</v>
+        <v>0.4929986556314532</v>
       </c>
       <c r="M25">
-        <v>137.1623992053928</v>
+        <v>12.88243172265288</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_244/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_244/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1382852495259073</v>
+        <v>0.185876632960273</v>
       </c>
       <c r="D2">
-        <v>0.02903157483691032</v>
+        <v>0.02332515493793963</v>
       </c>
       <c r="E2">
-        <v>0.2080691495604583</v>
+        <v>0.6020603773850723</v>
       </c>
       <c r="F2">
-        <v>0.9606442962047055</v>
+        <v>1.050753092689291</v>
       </c>
       <c r="G2">
-        <v>0.815313896557015</v>
+        <v>1.111110332227867</v>
       </c>
       <c r="H2">
-        <v>0.8579786372760907</v>
+        <v>0.4639280074383976</v>
       </c>
       <c r="I2">
-        <v>0.8094353589091767</v>
+        <v>0.5630391062200601</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4254645300077584</v>
+        <v>1.409314415384841</v>
       </c>
       <c r="M2">
-        <v>10.94419732318642</v>
+        <v>34.63135917326639</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1342804142170735</v>
+        <v>0.1602806359277196</v>
       </c>
       <c r="D3">
-        <v>0.03086542026373706</v>
+        <v>0.01489004247926573</v>
       </c>
       <c r="E3">
-        <v>0.1895767653421387</v>
+        <v>0.5018782257499481</v>
       </c>
       <c r="F3">
-        <v>0.9805847396468295</v>
+        <v>0.8259581489495673</v>
       </c>
       <c r="G3">
-        <v>0.83770751258416</v>
+        <v>0.8454952178647517</v>
       </c>
       <c r="H3">
-        <v>0.8843039319907433</v>
+        <v>0.3694752102074972</v>
       </c>
       <c r="I3">
-        <v>0.8454207989169404</v>
+        <v>0.4121855733349165</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3802221542334507</v>
+        <v>1.169946371205782</v>
       </c>
       <c r="M3">
-        <v>9.626327495980604</v>
+        <v>29.31547249487255</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.131908940825582</v>
+        <v>0.1459793350646947</v>
       </c>
       <c r="D4">
-        <v>0.03208420846612015</v>
+        <v>0.01119050436222935</v>
       </c>
       <c r="E4">
-        <v>0.1783528601004249</v>
+        <v>0.4458994923339006</v>
       </c>
       <c r="F4">
-        <v>0.9950466054534388</v>
+        <v>0.7121968536854695</v>
       </c>
       <c r="G4">
-        <v>0.8538623890222823</v>
+        <v>0.7122043682609842</v>
       </c>
       <c r="H4">
-        <v>0.9020316300492794</v>
+        <v>0.3254853356241085</v>
       </c>
       <c r="I4">
-        <v>0.8696134713979475</v>
+        <v>0.3421562145800507</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3526737102124002</v>
+        <v>1.036184756010357</v>
       </c>
       <c r="M4">
-        <v>8.814650732536165</v>
+        <v>26.23742129962233</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1309642598465359</v>
+        <v>0.1404159833274718</v>
       </c>
       <c r="D5">
-        <v>0.03260362793371385</v>
+        <v>0.009963283112064403</v>
       </c>
       <c r="E5">
-        <v>0.1738103245136458</v>
+        <v>0.4241136609697378</v>
       </c>
       <c r="F5">
-        <v>1.001485976137381</v>
+        <v>0.6705823205110448</v>
       </c>
       <c r="G5">
-        <v>0.8610358355447829</v>
+        <v>0.6636812701104304</v>
       </c>
       <c r="H5">
-        <v>0.9096424842088737</v>
+        <v>0.3103120382970559</v>
       </c>
       <c r="I5">
-        <v>0.8799887874304488</v>
+        <v>0.3180202258782074</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3415017047533411</v>
+        <v>0.9841222046717348</v>
       </c>
       <c r="M5">
-        <v>8.483213416106594</v>
+        <v>25.01732824683427</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1308086998370186</v>
+        <v>0.1395060642930304</v>
       </c>
       <c r="D6">
-        <v>0.03269123472750834</v>
+        <v>0.00977430827323289</v>
       </c>
       <c r="E6">
-        <v>0.1730578882369045</v>
+        <v>0.4205496217246534</v>
       </c>
       <c r="F6">
-        <v>1.002587867407556</v>
+        <v>0.6639266520275129</v>
       </c>
       <c r="G6">
-        <v>0.8622622058597358</v>
+        <v>0.6559338436035915</v>
       </c>
       <c r="H6">
-        <v>0.910929424534217</v>
+        <v>0.3079406300920482</v>
       </c>
       <c r="I6">
-        <v>0.8817424893939076</v>
+        <v>0.3142481440188121</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3396497713958695</v>
+        <v>0.9756046691372546</v>
       </c>
       <c r="M6">
-        <v>8.428136702285144</v>
+        <v>24.81650681833071</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1318961129721146</v>
+        <v>0.1459033330981754</v>
       </c>
       <c r="D7">
-        <v>0.03209112216626409</v>
+        <v>0.01117291788108687</v>
       </c>
       <c r="E7">
-        <v>0.1782914730711909</v>
+        <v>0.4456019232411066</v>
       </c>
       <c r="F7">
-        <v>0.9951312535711807</v>
+        <v>0.7116179138305512</v>
       </c>
       <c r="G7">
-        <v>0.8539567620013031</v>
+        <v>0.7115283796423881</v>
       </c>
       <c r="H7">
-        <v>0.902132715667932</v>
+        <v>0.3252704030146703</v>
       </c>
       <c r="I7">
-        <v>0.8697513189789206</v>
+        <v>0.3418142924283245</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3525228259133257</v>
+        <v>1.035473667140678</v>
       </c>
       <c r="M7">
-        <v>8.810183630120662</v>
+        <v>26.22084177317686</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.136886031925485</v>
+        <v>0.1766912217921259</v>
       </c>
       <c r="D8">
-        <v>0.02964426853635871</v>
+        <v>0.02004325469981794</v>
       </c>
       <c r="E8">
-        <v>0.2016649345797106</v>
+        <v>0.5661044568857179</v>
       </c>
       <c r="F8">
-        <v>0.967052196611661</v>
+        <v>0.9672393655790472</v>
       </c>
       <c r="G8">
-        <v>0.8225271895037451</v>
+        <v>1.012127425904694</v>
       </c>
       <c r="H8">
-        <v>0.8667270371882125</v>
+        <v>0.427904718354668</v>
       </c>
       <c r="I8">
-        <v>0.8214012492559064</v>
+        <v>0.5054180959322352</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.409814735025634</v>
+        <v>1.323404654732514</v>
       </c>
       <c r="M8">
-        <v>10.490286130198</v>
+        <v>32.75086705882808</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1473811489579191</v>
+        <v>0.2554590552236249</v>
       </c>
       <c r="D9">
-        <v>0.02560930081531509</v>
+        <v>0.05628560291095752</v>
       </c>
       <c r="E9">
-        <v>0.2486127407807572</v>
+        <v>0.8747008423517286</v>
       </c>
       <c r="F9">
-        <v>0.930129197361353</v>
+        <v>1.76186921099918</v>
       </c>
       <c r="G9">
-        <v>0.7806436390220028</v>
+        <v>1.964858231119308</v>
       </c>
       <c r="H9">
-        <v>0.8100041866765224</v>
+        <v>0.7976594914002817</v>
       </c>
       <c r="I9">
-        <v>0.7437221646446304</v>
+        <v>1.101755003469478</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5241837910725167</v>
+        <v>2.06073233454984</v>
       </c>
       <c r="M9">
-        <v>13.76753160554597</v>
+        <v>47.97818619251836</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1555497643282138</v>
+        <v>0.3499024466346867</v>
       </c>
       <c r="D10">
-        <v>0.02314872059617912</v>
+        <v>0.1189174469792871</v>
       </c>
       <c r="E10">
-        <v>0.2839034006018437</v>
+        <v>1.244107971452358</v>
       </c>
       <c r="F10">
-        <v>0.9148183178614602</v>
+        <v>2.852824373927376</v>
       </c>
       <c r="G10">
-        <v>0.7628498897288836</v>
+        <v>3.301991641703665</v>
       </c>
       <c r="H10">
-        <v>0.7764960231527169</v>
+        <v>1.360026399318144</v>
       </c>
       <c r="I10">
-        <v>0.697789017588164</v>
+        <v>2.026454933896105</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.6097366903998989</v>
+        <v>2.942745121329665</v>
       </c>
       <c r="M10">
-        <v>16.16864197100853</v>
+        <v>63.80497365219867</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.159371601920185</v>
+        <v>0.4321678079337232</v>
       </c>
       <c r="D11">
-        <v>0.02214760898804613</v>
+        <v>0.1844184808435365</v>
       </c>
       <c r="E11">
-        <v>0.3001605875285662</v>
+        <v>1.562431382259248</v>
       </c>
       <c r="F11">
-        <v>0.9105882960652849</v>
+        <v>3.826528597006543</v>
       </c>
       <c r="G11">
-        <v>0.7577830949615247</v>
+        <v>4.517270071976043</v>
       </c>
       <c r="H11">
-        <v>0.7631191334730545</v>
+        <v>1.890735039512521</v>
       </c>
       <c r="I11">
-        <v>0.6794660274276012</v>
+        <v>2.916125666876226</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6490598665051834</v>
+        <v>3.701069978978694</v>
       </c>
       <c r="M11">
-        <v>17.26050881681698</v>
+        <v>75.67414917514901</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1608346186565939</v>
+        <v>0.5048165025162632</v>
       </c>
       <c r="D12">
-        <v>0.02178628982385789</v>
+        <v>0.2468406782163939</v>
       </c>
       <c r="E12">
-        <v>0.3063485582386392</v>
+        <v>1.838846790665208</v>
       </c>
       <c r="F12">
-        <v>0.9093942430016284</v>
+        <v>4.65457523259262</v>
       </c>
       <c r="G12">
-        <v>0.7563177539874175</v>
+        <v>5.565725539522248</v>
       </c>
       <c r="H12">
-        <v>0.7583300370389736</v>
+        <v>2.357352146554888</v>
       </c>
       <c r="I12">
-        <v>0.6729107683165907</v>
+        <v>3.711850431124844</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6640149974574001</v>
+        <v>4.357421038547557</v>
       </c>
       <c r="M12">
-        <v>17.67399688551171</v>
+        <v>84.84887604833057</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1605188213066526</v>
+        <v>0.4809883677846898</v>
       </c>
       <c r="D13">
-        <v>0.02186330278898652</v>
+        <v>0.226074143798737</v>
       </c>
       <c r="E13">
-        <v>0.3050144152514349</v>
+        <v>1.748754325539686</v>
       </c>
       <c r="F13">
-        <v>0.9096330329103353</v>
+        <v>4.388194523575379</v>
       </c>
       <c r="G13">
-        <v>0.756612886557491</v>
+        <v>5.22693288911438</v>
       </c>
       <c r="H13">
-        <v>0.7593490283083781</v>
+        <v>2.205868348244849</v>
       </c>
       <c r="I13">
-        <v>0.6743052975104646</v>
+        <v>3.452096302347755</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6607911809110476</v>
+        <v>4.14375281877679</v>
       </c>
       <c r="M13">
-        <v>17.58494249934603</v>
+        <v>81.96449160996491</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1594916458626017</v>
+        <v>0.4361061420880503</v>
       </c>
       <c r="D14">
-        <v>0.02211752210837403</v>
+        <v>0.1877210171620902</v>
       </c>
       <c r="E14">
-        <v>0.3006690247962212</v>
+        <v>1.577542739473841</v>
       </c>
       <c r="F14">
-        <v>0.9104818038800033</v>
+        <v>3.872498896841009</v>
       </c>
       <c r="G14">
-        <v>0.7576533498445599</v>
+        <v>4.575116890677862</v>
       </c>
       <c r="H14">
-        <v>0.7627195441054653</v>
+        <v>1.916300049847962</v>
       </c>
       <c r="I14">
-        <v>0.6789189631005854</v>
+        <v>2.959389515869134</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6502889089901487</v>
+        <v>3.737009695357614</v>
       </c>
       <c r="M14">
-        <v>17.29452580378234</v>
+        <v>76.20139064566223</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1588645418526085</v>
+        <v>0.4171228792704937</v>
       </c>
       <c r="D15">
-        <v>0.02227557803899671</v>
+        <v>0.1719174489841357</v>
       </c>
       <c r="E15">
-        <v>0.2980115566612227</v>
+        <v>1.504583700929054</v>
       </c>
       <c r="F15">
-        <v>0.9110552408934893</v>
+        <v>3.650077420299965</v>
       </c>
       <c r="G15">
-        <v>0.7583502454241398</v>
+        <v>4.295623064414798</v>
       </c>
       <c r="H15">
-        <v>0.7648203275803667</v>
+        <v>1.793003086627834</v>
       </c>
       <c r="I15">
-        <v>0.6817952824475171</v>
+        <v>2.751080162572663</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6438645262138891</v>
+        <v>3.563434125131806</v>
       </c>
       <c r="M15">
-        <v>17.11664255048964</v>
+        <v>73.62679518147741</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1553021743767999</v>
+        <v>0.3460479236617005</v>
       </c>
       <c r="D16">
-        <v>0.02321659036062584</v>
+        <v>0.1160526504921613</v>
       </c>
       <c r="E16">
-        <v>0.2828452548671123</v>
+        <v>1.22908953764842</v>
       </c>
       <c r="F16">
-        <v>0.9151510219795256</v>
+        <v>2.80708400235082</v>
       </c>
       <c r="G16">
-        <v>0.7632434644014126</v>
+        <v>3.245383211749242</v>
       </c>
       <c r="H16">
-        <v>0.7774084720583971</v>
+        <v>1.335661702499209</v>
       </c>
       <c r="I16">
-        <v>0.6990393617443829</v>
+        <v>1.985997761314032</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.6071754837686001</v>
+        <v>2.906917996068444</v>
       </c>
       <c r="M16">
-        <v>16.09728439228888</v>
+        <v>63.20688610434718</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.153144270044379</v>
+        <v>0.3161238257510064</v>
       </c>
       <c r="D17">
-        <v>0.02382469376149032</v>
+        <v>0.09460726173093192</v>
       </c>
       <c r="E17">
-        <v>0.2735950032937069</v>
+        <v>1.112274815462911</v>
       </c>
       <c r="F17">
-        <v>0.9183743065932504</v>
+        <v>2.453982406185872</v>
       </c>
       <c r="G17">
-        <v>0.7670333643023355</v>
+        <v>2.809913510568862</v>
       </c>
       <c r="H17">
-        <v>0.7856145355933108</v>
+        <v>1.149605482052237</v>
       </c>
       <c r="I17">
-        <v>0.7102862408677311</v>
+        <v>1.678199654933188</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5847758057009287</v>
+        <v>2.628138635676777</v>
       </c>
       <c r="M17">
-        <v>15.47189133082321</v>
+        <v>58.42881838368476</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.151913032394873</v>
+        <v>0.3012939744721734</v>
       </c>
       <c r="D18">
-        <v>0.02418553728659845</v>
+        <v>0.08455210484192577</v>
       </c>
       <c r="E18">
-        <v>0.2682934773146712</v>
+        <v>1.05426608462016</v>
       </c>
       <c r="F18">
-        <v>0.920484791571468</v>
+        <v>2.281061047752033</v>
       </c>
       <c r="G18">
-        <v>0.7694970856844918</v>
+        <v>2.597678391706211</v>
       </c>
       <c r="H18">
-        <v>0.7905095980854497</v>
+        <v>1.059929467008288</v>
       </c>
       <c r="I18">
-        <v>0.7169964339927475</v>
+        <v>1.530583259765102</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5719298072174581</v>
+        <v>2.489637403813674</v>
       </c>
       <c r="M18">
-        <v>15.11213789560264</v>
+        <v>55.97042804067274</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1514978465368131</v>
+        <v>0.296575390197475</v>
       </c>
       <c r="D19">
-        <v>0.0243095922471035</v>
+        <v>0.08143968284379355</v>
       </c>
       <c r="E19">
-        <v>0.2665016575506201</v>
+        <v>1.035796404429043</v>
       </c>
       <c r="F19">
-        <v>0.9212429919947311</v>
+        <v>2.226442170647303</v>
       </c>
       <c r="G19">
-        <v>0.7703794761480225</v>
+        <v>2.530787732445731</v>
       </c>
       <c r="H19">
-        <v>0.7921968220304763</v>
+        <v>1.031822261496046</v>
       </c>
       <c r="I19">
-        <v>0.7193094303931389</v>
+        <v>1.484416903642618</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5675866699463938</v>
+        <v>2.445532180706152</v>
       </c>
       <c r="M19">
-        <v>14.99032168057232</v>
+        <v>55.1753727759089</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.153372950959124</v>
+        <v>0.3190333299929904</v>
       </c>
       <c r="D20">
-        <v>0.02375880799040075</v>
+        <v>0.0966267723095271</v>
       </c>
       <c r="E20">
-        <v>0.2745777271451288</v>
+        <v>1.123647760846325</v>
       </c>
       <c r="F20">
-        <v>0.9180045283847704</v>
+        <v>2.488103118321689</v>
       </c>
       <c r="G20">
-        <v>0.7666004150311352</v>
+        <v>2.85187280444805</v>
       </c>
       <c r="H20">
-        <v>0.7847228007446034</v>
+        <v>1.167418193753775</v>
       </c>
       <c r="I20">
-        <v>0.7090639236840559</v>
+        <v>1.707579086081338</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5871563446999062</v>
+        <v>2.65528819831863</v>
       </c>
       <c r="M20">
-        <v>15.53846946941815</v>
+        <v>58.90401912418298</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1597929196364589</v>
+        <v>0.4468313806501385</v>
       </c>
       <c r="D21">
-        <v>0.02204236278856087</v>
+        <v>0.1967724470349115</v>
       </c>
       <c r="E21">
-        <v>0.3019444894417376</v>
+        <v>1.618626363517784</v>
       </c>
       <c r="F21">
-        <v>0.9102213150331124</v>
+        <v>3.997165533840359</v>
       </c>
       <c r="G21">
-        <v>0.7573352908799507</v>
+        <v>4.73220309750036</v>
       </c>
       <c r="H21">
-        <v>0.7617219736270329</v>
+        <v>1.985838957229191</v>
       </c>
       <c r="I21">
-        <v>0.6775533073824107</v>
+        <v>3.077262292038867</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6533718850080277</v>
+        <v>3.834688412426516</v>
       </c>
       <c r="M21">
-        <v>17.37982695635924</v>
+        <v>77.61924032826903</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1640809452385383</v>
+        <v>0.4468313806501385</v>
       </c>
       <c r="D22">
-        <v>0.0210245905847195</v>
+        <v>0.1967724470349115</v>
       </c>
       <c r="E22">
-        <v>0.3200164715410239</v>
+        <v>1.618626363517784</v>
       </c>
       <c r="F22">
-        <v>0.9075183449149336</v>
+        <v>3.997165533840359</v>
       </c>
       <c r="G22">
-        <v>0.7539311881524782</v>
+        <v>4.73220309750036</v>
       </c>
       <c r="H22">
-        <v>0.7483048532913301</v>
+        <v>1.985838957229191</v>
       </c>
       <c r="I22">
-        <v>0.6591997479989544</v>
+        <v>3.077262292038867</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.6970254953904202</v>
+        <v>3.834688412426516</v>
       </c>
       <c r="M22">
-        <v>18.5834301849431</v>
+        <v>77.61924032826903</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1617837166302252</v>
+        <v>0.4468313806501385</v>
       </c>
       <c r="D23">
-        <v>0.02155800932523277</v>
+        <v>0.1967724470349115</v>
       </c>
       <c r="E23">
-        <v>0.3103532021781348</v>
+        <v>1.618626363517784</v>
       </c>
       <c r="F23">
-        <v>0.9087379497820365</v>
+        <v>3.997165533840359</v>
       </c>
       <c r="G23">
-        <v>0.7554993502335492</v>
+        <v>4.73220309750036</v>
       </c>
       <c r="H23">
-        <v>0.7553152876420199</v>
+        <v>1.985838957229191</v>
       </c>
       <c r="I23">
-        <v>0.6687858541826301</v>
+        <v>3.077262292038867</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6736900300593049</v>
+        <v>3.834688412426516</v>
       </c>
       <c r="M23">
-        <v>17.94100039499864</v>
+        <v>77.61924032826903</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1532695351726261</v>
+        <v>0.927298240868069</v>
       </c>
       <c r="D24">
-        <v>0.02378856000647289</v>
+        <v>0.6007876624758097</v>
       </c>
       <c r="E24">
-        <v>0.2741333862762048</v>
+        <v>3.331543549825994</v>
       </c>
       <c r="F24">
-        <v>0.918170904535387</v>
+        <v>8.14366660172881</v>
       </c>
       <c r="G24">
-        <v>0.7667952654824148</v>
+        <v>10.17668407470731</v>
       </c>
       <c r="H24">
-        <v>0.7851254024694754</v>
+        <v>4.460768571165602</v>
       </c>
       <c r="I24">
-        <v>0.7096157736227084</v>
+        <v>7.515283651376365</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5860800041913308</v>
+        <v>7.852017812745558</v>
       </c>
       <c r="M24">
-        <v>15.50837014259719</v>
+        <v>121.7041061979506</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1444635031345172</v>
+        <v>1.193578150457014</v>
       </c>
       <c r="D25">
-        <v>0.02661526583543861</v>
+        <v>0.779153132722044</v>
       </c>
       <c r="E25">
-        <v>0.2357812136348514</v>
+        <v>4.186048886404009</v>
       </c>
       <c r="F25">
-        <v>0.9380987359491968</v>
+        <v>9.186556518649454</v>
       </c>
       <c r="G25">
-        <v>0.7897645028533873</v>
+        <v>11.70383874222188</v>
       </c>
       <c r="H25">
-        <v>0.8239461288816159</v>
+        <v>5.166476260188318</v>
       </c>
       <c r="I25">
-        <v>0.7628316547192497</v>
+        <v>8.976747469183891</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4929986556314532</v>
+        <v>9.813554760103699</v>
       </c>
       <c r="M25">
-        <v>12.88243172265288</v>
+        <v>137.1623992053926</v>
       </c>
       <c r="N25">
         <v>0</v>
